--- a/簿记/Manufacturing Account/Question 3.xlsx
+++ b/簿记/Manufacturing Account/Question 3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F31FF7-66FE-5E46-B8C4-C1A89D9A26FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213C405-9C5C-7C4B-ADCA-1B5C7A391E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="480" windowWidth="13680" windowHeight="17040" activeTab="1" xr2:uid="{5A1A110B-4491-AF45-A311-A1B9339CF2E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5A1A110B-4491-AF45-A311-A1B9339CF2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>RM</t>
   </si>
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -272,12 +272,6 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,13 +285,22 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +621,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,28 +634,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -662,15 +665,13 @@
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -685,8 +686,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7">
         <v>24600</v>
       </c>
     </row>
@@ -707,290 +707,269 @@
       <c r="B9" s="8">
         <v>-18800</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9">
         <f>B8+B9</f>
         <v>220800</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
+      <c r="B11" s="8">
         <v>1800</v>
       </c>
-      <c r="D10" s="8">
-        <f>C9+C10</f>
+      <c r="C11" s="8">
+        <f>B10+B11</f>
         <v>222600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <f>D7+D10</f>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <f>C7+C11</f>
         <v>247200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
         <v>-28000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <f>D11+D12</f>
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <f>C12+C13</f>
         <v>219200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <v>-8000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
         <v>211200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7">
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>100600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8">
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <f>D15+D17+D19</f>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <f>C16+C18+C20</f>
         <v>314800</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8">
         <v>16200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <f>D20+D21</f>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <f>C21+C22</f>
         <v>331000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
         <v>-13100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
-        <f>D22+D23</f>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <f>C23+C24</f>
         <v>317900</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
+      <c r="B27" s="7">
         <f>1700+3500-200</f>
         <v>5000</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7">
-        <v>12100</v>
-      </c>
-      <c r="D27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
-        <v>13250</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B28" s="7">
+        <v>12100</v>
+      </c>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7">
+        <v>13250</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
+      <c r="B30" s="7">
         <f>24000 /4 *3</f>
         <v>18000</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7">
-        <v>53000</v>
-      </c>
-      <c r="D31" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="7">
+        <v>53000</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7">
+      <c r="B33" s="7">
         <v>2800</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8">
+      <c r="B34" s="8">
         <v>20000</v>
       </c>
-      <c r="D33" s="8">
-        <f>SUM(C26:C33)</f>
+      <c r="C34" s="8">
+        <f>SUM(B27:B34)</f>
         <v>134150</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7">
-        <f>D24+D33</f>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7">
+        <f>C25+C34</f>
         <v>452050</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8">
-        <f>D34*10%</f>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8">
+        <f>C35*10%</f>
         <v>45205</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="37" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11">
-        <f>D34+D35</f>
+      <c r="B37" s="7"/>
+      <c r="C37" s="11">
+        <f>C35+C36</f>
         <v>497255</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1001,45 +980,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" style="14" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1047,8 +1026,8 @@
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
         <v>545100</v>
       </c>
     </row>
@@ -1056,8 +1035,8 @@
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15">
         <v>-8000</v>
       </c>
     </row>
@@ -1065,8 +1044,8 @@
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
         <f>C7+C6</f>
         <v>537100</v>
       </c>
@@ -1075,43 +1054,43 @@
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>23300</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>497255</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="16">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14">
         <f>B10+B11</f>
         <v>520555</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>-25500</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <f>-(B12+B13)</f>
         <v>-495055</v>
       </c>
@@ -1120,15 +1099,15 @@
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14">
         <f>C8+C13</f>
         <v>42045</v>
       </c>
@@ -1137,19 +1116,20 @@
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15">
         <v>45205</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16">
+      <c r="B17" s="14"/>
+      <c r="C17" s="22">
         <f>C15+C16</f>
         <v>87250</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
